--- a/04_Entregable 2/previo/resumen_bdd_2025-03-25.xlsx
+++ b/04_Entregable 2/previo/resumen_bdd_2025-03-25.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -629,7 +629,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,7 +693,7 @@
       <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -716,7 +716,7 @@
       <c r="F3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -739,7 +739,7 @@
       <c r="F4" t="s">
         <v>22</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -927,7 +927,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>41</v>
       </c>
@@ -953,7 +953,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>43</v>
       </c>
@@ -1002,8 +1002,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>48</v>
       </c>
       <c r="B16" t="s">
@@ -1067,7 +1067,7 @@
       <c r="F18" t="s">
         <v>54</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1090,12 +1090,12 @@
       <c r="F19" t="s">
         <v>56</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B20" t="s">
@@ -1117,8 +1117,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>60</v>
       </c>
       <c r="B21" t="s">
@@ -1140,8 +1140,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B22" t="s">
@@ -1163,8 +1163,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B23" t="s">
@@ -1186,8 +1186,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B24" t="s">

--- a/04_Entregable 2/previo/resumen_bdd_2025-03-25.xlsx
+++ b/04_Entregable 2/previo/resumen_bdd_2025-03-25.xlsx
@@ -629,7 +629,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -785,7 +785,7 @@
       <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -923,7 +923,7 @@
       <c r="F12" t="s">
         <v>40</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="2" t="s">
         <v>14</v>
       </c>
     </row>

--- a/04_Entregable 2/previo/resumen_bdd_2025-03-25.xlsx
+++ b/04_Entregable 2/previo/resumen_bdd_2025-03-25.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Disco_F\!!Personal\Mio\1_WCS 2024\wcs\04_Entregable 2\previo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Javi_Angelito\wcs\04_Entregable 2\previo\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2C46667-AA42-4742-BC1B-BF114805AD44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -258,7 +259,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -340,9 +341,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -380,9 +381,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,7 +418,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -452,7 +453,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -625,11 +626,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -831,7 +832,7 @@
       <c r="F8" t="s">
         <v>31</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -877,7 +878,7 @@
       <c r="F10" t="s">
         <v>35</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="2" t="s">
         <v>14</v>
       </c>
     </row>
